--- a/Auto-IT/Bulk-Employee-Stable.xlsx
+++ b/Auto-IT/Bulk-Employee-Stable.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4712FC1-D9A6-42DD-99DE-E31286E511F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11900" windowHeight="5860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I17"/>
 </workbook>
 </file>
 
@@ -1326,7 +1321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -1644,13 +1639,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2307,34 +2302,34 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 Y2:Y1048576 AJ2:AJ1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576 Y2:Y1048576 AJ2:AJ1048576">
       <formula1>"southAfrica"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="BJ2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BJ3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" tooltip="mailto:solace@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" tooltip="mailto:boo@imr.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BJ2" r:id="rId1"/>
+    <hyperlink ref="BJ3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3" tooltip="mailto:solace@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId4" tooltip="mailto:boo@imr.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$91</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P1048576 V2:V1048576 AG2:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$11</xm:f>
           </x14:formula1>
           <xm:sqref>Q2:Q1048576 W2:W1048576 AH2:AH1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$H$3:$H$4</xm:f>
           </x14:formula1>
@@ -2347,13 +2342,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
